--- a/data/aggregated_single_ext/bs_auto1.xlsx
+++ b/data/aggregated_single_ext/bs_auto1.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.294882793812789</v>
+        <v>0.1621898976982097</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>406.9730319692234</v>
+        <v>577.1632377688619</v>
       </c>
     </row>
   </sheetData>

--- a/data/aggregated_single_ext/bs_auto1.xlsx
+++ b/data/aggregated_single_ext/bs_auto1.xlsx
@@ -669,7 +669,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1621898976982097</v>
+        <v>0.294882793812789</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>577.1632377688619</v>
+        <v>406.9730319692234</v>
       </c>
     </row>
   </sheetData>
